--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2697.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2697.xlsx
@@ -354,7 +354,7 @@
         <v>2.415954514886692</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.337399753340022</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2697.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2697.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164121063329085</v>
+        <v>0.8170576691627502</v>
       </c>
       <c r="B1">
-        <v>2.415954514886692</v>
+        <v>1.347966194152832</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.590045213699341</v>
       </c>
       <c r="D1">
-        <v>2.337399753340022</v>
+        <v>2.644761562347412</v>
       </c>
       <c r="E1">
-        <v>1.216145628313376</v>
+        <v>1.657705903053284</v>
       </c>
     </row>
   </sheetData>
